--- a/Vorlagen/Vorlage_Brigitte_2025.xlsx
+++ b/Vorlagen/Vorlage_Brigitte_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brigittemacbookpro/Brigitte Aron/Rechnung__Logopädie/Abrechnungsprogramm Leander/Vorlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E199F1F-B1DB-DD48-9583-05683762F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8368EA37-E176-1349-9ECE-C931A9A21B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="500" windowWidth="21960" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rechnung" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Brigitte Aron-Lochner</t>
   </si>
@@ -80,12 +80,6 @@
     <t>folgende logopädische Therapieeinheiten werden hiermit in Rechnung gestellt:</t>
   </si>
   <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Preis/Einh.</t>
-  </si>
-  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -102,17 +96,24 @@
   </si>
   <si>
     <t>Umsatzsteuerfrei gem. §6, Abs.1 Zi.19 UstG</t>
+  </si>
+  <si>
+    <t>Betrag pro Einheit</t>
+  </si>
+  <si>
+    <t>Leistungsbezeichnung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="[$€-C07]\ #,##0.00;[Red]\-[$€-C07]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -203,6 +204,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -218,21 +238,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -261,83 +272,20 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -350,102 +298,112 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,7 +429,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>569600</xdr:colOff>
+      <xdr:colOff>226700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
@@ -488,8 +446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="32760" y="1549080"/>
-          <a:ext cx="5757840" cy="0"/>
+          <a:off x="32760" y="1608387"/>
+          <a:ext cx="4537340" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -579,7 +537,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>387986</xdr:colOff>
+      <xdr:colOff>45086</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -949,13 +907,17 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="7.5" customWidth="1"/>
+    <col min="1" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
@@ -963,730 +925,692 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="36" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="33" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="33" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="40" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="27" t="s">
         <v>9</v>
       </c>
+      <c r="C21" s="27"/>
       <c r="D21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="8" t="str">
-        <f t="shared" ref="I22:I30" si="0">IF(G22*E22 &gt; 0,G22*E22,"")</f>
+      <c r="A22" s="43"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="11" t="str">
+        <f>IF(D22*G22 &gt; 0,D22*G22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="9" t="str">
+      <c r="A23" s="43"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="11" t="str">
+        <f t="shared" ref="I23:I30" si="0">IF(G23*E23 &gt; 0,G23*E23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="43"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="9" t="str">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="43"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="9" t="str">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="9" t="str">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="43"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="9" t="str">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="9" t="str">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="9" t="str">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="20">
+      <c r="A32" s="44"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="30">
         <f>SUM(I22:I30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="20"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="15" t="s">
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="15" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="I45:K45"/>
+  <mergeCells count="67">
     <mergeCell ref="A48:K48"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A42:C42"/>
@@ -1694,9 +1618,69 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <pageMargins left="1.1812499999999999" right="0.98402777777777795" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vorlagen/Vorlage_Brigitte_2025.xlsx
+++ b/Vorlagen/Vorlage_Brigitte_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brigittemacbookpro/Brigitte Aron/Rechnung__Logopädie/Abrechnungsprogramm Leander/Vorlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8368EA37-E176-1349-9ECE-C931A9A21B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B03937-E4BE-1441-BAA6-B86C6BD6A28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rechnung" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Rechnung!$A$1:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Rechnung!$A$1:$K$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,26 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Brigitte Aron-Lochner</t>
   </si>
   <si>
-    <t xml:space="preserve">       Logopädin, Mototherapeutin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              Michael-Gaismairstr. 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   6020 Innsbruck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              Tel: + 43/680/2383614</t>
-  </si>
-  <si>
-    <t>www.logopaedie-mund-werk.at</t>
-  </si>
-  <si>
     <t>Honorarnote</t>
   </si>
   <si>
@@ -89,9 +74,6 @@
     <t>Mit freundlichen Grüßen</t>
   </si>
   <si>
-    <t xml:space="preserve">     Brigitte Aron-Lochner</t>
-  </si>
-  <si>
     <t>easybank, IBAN: AT84 1420 0200 9450 2811, BIC:BAWAATWW</t>
   </si>
   <si>
@@ -102,6 +84,24 @@
   </si>
   <si>
     <t>Leistungsbezeichnung</t>
+  </si>
+  <si>
+    <t>Gesamtbetrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logopädin, Mototherapeutin</t>
+  </si>
+  <si>
+    <t>Michael-Gaismairstr. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6020 Innsbruck</t>
+  </si>
+  <si>
+    <t>Tel: + 43/680/2383614</t>
+  </si>
+  <si>
+    <t>www.praxis-mund-werk.at</t>
   </si>
 </sst>
 </file>
@@ -109,11 +109,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -207,24 +207,73 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +286,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -256,21 +311,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -280,11 +320,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -298,78 +337,110 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -378,32 +449,37 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,173 +492,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>226700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Gerade Verbindung 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="32760" y="1608387"/>
-          <a:ext cx="4537340" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="54000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>32400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Gerade Verbindung 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7341120" y="1549080"/>
-          <a:ext cx="696240" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="54000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>45086</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Gerade Verbindung 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="48240" y="9105840"/>
-          <a:ext cx="8037720" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="47520">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -905,33 +814,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="87" zoomScaleNormal="90" zoomScaleSheetLayoutView="136" zoomScalePageLayoutView="87" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -941,10 +851,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -954,12 +864,12 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -969,12 +879,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -984,12 +894,12 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -999,12 +909,12 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1014,12 +924,12 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1027,7 +937,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1035,35 +945,34 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="19"/>
+      <c r="H8" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1084,14 +993,13 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1100,11 +1008,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1113,40 +1021,40 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="H14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="H15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="57"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1162,12 +1070,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -1177,10 +1085,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1196,269 +1104,288 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="A20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="10" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="11" t="str">
+      <c r="A22" s="8"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="10" t="str">
         <f>IF(D22*G22 &gt; 0,D22*G22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="11" t="str">
+      <c r="A23" s="8"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="10" t="str">
         <f t="shared" ref="I23:I30" si="0">IF(G23*E23 &gt; 0,G23*E23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="11" t="str">
+      <c r="A24" s="8"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="11" t="str">
+      <c r="A25" s="8"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="11" t="str">
+      <c r="A26" s="8"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="11" t="str">
+      <c r="A27" s="8"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="11" t="str">
+      <c r="A28" s="8"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="11" t="str">
+      <c r="A29" s="8"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="11" t="str">
+      <c r="A30" s="8"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="30">
-        <f>SUM(I22:I30)</f>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:23" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="G34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="23">
+        <f>SUM(I22:I32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="29"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1471,102 +1398,95 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
+      <c r="G41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="G45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1579,78 +1499,103 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
+      <c r="A49" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="B30:C30"/>
+  <mergeCells count="66">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="V37:W38"/>
+    <mergeCell ref="T38:U38"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
@@ -1658,29 +1603,15 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
   </mergeCells>
-  <pageMargins left="1.1812499999999999" right="0.98402777777777795" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>